--- a/app/src/main/assets/21st Century Literature from the Philippines and the World.xlsx
+++ b/app/src/main/assets/21st Century Literature from the Philippines and the World.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEBC4B-7460-4F85-9490-25EAFB967C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34194831-FB14-4008-9616-1AE5A1A6C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
   <si>
     <t xml:space="preserve">01 Handout </t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>High ticket prices</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -737,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +757,7 @@
     <col min="7" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,8 +779,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -796,8 +805,14 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -816,8 +831,11 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -839,8 +857,14 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -859,8 +883,14 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -879,8 +909,11 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -902,8 +935,11 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -925,8 +961,11 @@
       <c r="G8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -948,8 +987,11 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -971,8 +1013,11 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -994,8 +1039,11 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1017,8 +1065,11 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1040,8 +1091,11 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1063,8 +1117,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1085,6 +1142,9 @@
       </c>
       <c r="G15" t="s">
         <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1094,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DF0D3-240D-4483-B7E1-DBCA63605477}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1167,7 @@
     <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1177,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1128,8 +1191,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1205,11 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1150,8 +1219,11 @@
       <c r="C4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1161,8 +1233,11 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1172,8 +1247,11 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1183,8 +1261,11 @@
       <c r="C7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1194,8 +1275,11 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1205,8 +1289,11 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1216,8 +1303,11 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1227,8 +1317,11 @@
       <c r="C11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1238,8 +1331,11 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1249,8 +1345,11 @@
       <c r="C13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1260,8 +1359,11 @@
       <c r="C14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1270,6 +1372,9 @@
       </c>
       <c r="C15" t="s">
         <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1279,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271FC9DF-62DC-45A3-B9FC-2B1D036FC7D9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1396,7 @@
     <col min="2" max="2" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,8 +1406,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1420,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1434,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1334,8 +1448,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1462,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1356,8 +1476,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1367,8 +1490,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1378,8 +1504,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1389,8 +1518,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1400,8 +1532,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1411,8 +1546,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1422,8 +1560,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1433,8 +1574,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1444,8 +1588,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1454,6 +1601,9 @@
       </c>
       <c r="C15" t="b">
         <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
